--- a/biology/Zoologie/Attelabus/Attelabus.xlsx
+++ b/biology/Zoologie/Attelabus/Attelabus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attelabus est un genre d'insectes coléoptères de la famille des Attelabidae. Ce genre est appelé en français Attelabe, Attélabe et Cigarier en référence au comportement des femelles qui confectionnent un rouleaux avec des feuilles pour protéger leur larve. En France, une seule espèce est référencée par l'INPN[2] : Attelabus nitens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attelabus est un genre d'insectes coléoptères de la famille des Attelabidae. Ce genre est appelé en français Attelabe, Attélabe et Cigarier en référence au comportement des femelles qui confectionnent un rouleaux avec des feuilles pour protéger leur larve. En France, une seule espèce est référencée par l'INPN : Attelabus nitens.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces européennes selon Fauna Europaea                                      (10 octobre 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces européennes selon Fauna Europaea                                      (10 octobre 2021) :
 Attelabus (Attelabus) nitens (Scopoli, 1763) : Ensemble de l'Europe
 Attelabus (Attelabus) sulcifrons (Argod, 1895) : Bulgarie, Turquie, Grèce, Macédoine, Moyen Orient et Russie européenne.
 Attelabus (Attelabus) suturalis Jekel, 1860 : Chypre et Turquie
 Attelabus (Attelabus) variolosus (Fabricius, 1801) : Afrique du Nord et Espagne
-Ensemble des espèces selon GBIF       (10 octobre 2021)[1] :
+Ensemble des espèces selon GBIF       (10 octobre 2021) :
 Attelabus abdominalis Angelov, 1964
 Attelabus abyssinicus Hustache, 1923
 Attelabus aeneus Schilsky, 1903
